--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.71489270905432E-05</v>
+        <v>0.0001000210781354453</v>
       </c>
       <c r="E3">
-        <v>3.71489270905432E-05</v>
+        <v>0.0001000210781354453</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.002529676674804679</v>
+        <v>0.0004044725105451163</v>
       </c>
       <c r="E4">
-        <v>0.002529676674804679</v>
+        <v>0.0004044725105451163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5.802362082673863E-16</v>
+        <v>1.175778944526739E-27</v>
       </c>
       <c r="E5">
-        <v>5.802362082673863E-16</v>
+        <v>1.175778944526739E-27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.748602034990304E-18</v>
+        <v>4.368558616677276E-26</v>
       </c>
       <c r="E6">
-        <v>3.748602034990304E-18</v>
+        <v>4.368558616677276E-26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999998765818</v>
+        <v>0.9999999999955131</v>
       </c>
       <c r="E7">
-        <v>1.234181645770605E-10</v>
+        <v>4.486855331720108E-12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.908482119596138</v>
+        <v>0.995927927319859</v>
       </c>
       <c r="E8">
-        <v>0.091517880403862</v>
+        <v>0.004072072680140981</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999998155426804</v>
+        <v>0.9999999166203365</v>
       </c>
       <c r="E9">
-        <v>1.84457319640785E-07</v>
+        <v>8.337966350691062E-08</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.46142331336617E-19</v>
+        <v>7.183843074994926E-17</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.586344550033861E-77</v>
+        <v>1.104957013213112E-60</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>28.26229286193848</v>
+        <v>24.39967727661133</v>
       </c>
       <c r="G11">
         <v>0.7</v>
